--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -50,7 +50,21 @@
       <rPr>
         <color rgb="FF000000"/>
       </rPr>
-      <t>comleter les fichiers requetes manquant, et se preparer a la presentation du projet</t>
+      <t>completer les fichiers requetes manquant, et se preparer a la presentation du projet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>creer le projet backend et partager les taches et commencer a coder l'api</t>
     </r>
   </si>
 </sst>
@@ -629,8 +643,8 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="6" t="s">
-        <v>3</v>
+      <c r="B34" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="J34" s="8"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -121,6 +121,34 @@
         <color rgb="FF000000"/>
       </rPr>
       <t>distribution des taches et deploiement projet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>FUNTIONALITE :</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> distribution des taches et deploiement de la bd avec le script et commencer a coder les fichiers servers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">DIFICULTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">deploiement sur heroku </t>
     </r>
   </si>
 </sst>
@@ -975,7 +1003,9 @@
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="16">
+        <v>44043.0</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4" t="s">
         <v>1</v>
@@ -989,8 +1019,8 @@
       <c r="J73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="6" t="s">
-        <v>3</v>
+      <c r="B74" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="J74" s="8"/>
     </row>
@@ -1003,8 +1033,8 @@
       <c r="J76" s="8"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="10" t="s">
-        <v>5</v>
+      <c r="B77" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -151,6 +151,43 @@
       <t xml:space="preserve">deploiement sur heroku </t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>creer la bd MongoDB et la deployer et coder la connexion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">DIFICULTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>deploiement sur mongodb</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE :  </t>
+  </si>
+  <si>
+    <t>FUNTIONALITE : reglage des conflits</t>
+  </si>
+  <si>
+    <t>FUNTIONALITE : coder les controllers</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,6 +212,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -251,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,6 +320,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1118,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="16">
+        <v>44013.0</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
         <v>1</v>
@@ -1087,8 +1137,8 @@
       <c r="J83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="6" t="s">
-        <v>3</v>
+      <c r="B84" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="J84" s="8"/>
     </row>
@@ -1101,8 +1151,8 @@
       <c r="J86" s="8"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="10" t="s">
-        <v>5</v>
+      <c r="B87" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -1138,10 +1188,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="3"/>
+      <c r="B93" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="16">
+        <v>44016.0</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
         <v>1</v>
@@ -1155,8 +1207,8 @@
       <c r="J93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="6" t="s">
-        <v>3</v>
+      <c r="B94" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="J94" s="8"/>
     </row>
@@ -1206,10 +1258,12 @@
     </row>
     <row r="102" ht="15.75" customHeight="1"/>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="16">
+        <v>44017.0</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4" t="s">
         <v>1</v>
@@ -1223,8 +1277,8 @@
       <c r="J103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="6" t="s">
-        <v>3</v>
+      <c r="B104" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="J104" s="8"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -183,10 +183,39 @@
     <t xml:space="preserve">DATE :  </t>
   </si>
   <si>
-    <t>FUNTIONALITE : reglage des conflits</t>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>reglage des conflits</t>
+    </r>
   </si>
   <si>
-    <t>FUNTIONALITE : coder les controllers</t>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>coder les controllers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>FUNTIONALITE :</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> finition du code connexion utilisateur avec  l'adresse</t>
+    </r>
+  </si>
+  <si>
+    <t>FUNTIONALITE : finition des controllers utilisateur et commencer les controller de services</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1360,9 @@
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="16">
+        <v>44049.0</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="4" t="s">
         <v>1</v>
@@ -1345,8 +1376,8 @@
       <c r="J113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="6" t="s">
-        <v>3</v>
+      <c r="B114" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J114" s="8"/>
     </row>
@@ -1399,7 +1430,9 @@
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="16">
+        <v>44054.0</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="4" t="s">
         <v>1</v>
@@ -1413,8 +1446,8 @@
       <c r="J123" s="5"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="6" t="s">
-        <v>3</v>
+      <c r="B124" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="J124" s="8"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -215,7 +215,36 @@
     </r>
   </si>
   <si>
-    <t>FUNTIONALITE : finition des controllers utilisateur et commencer les controller de services</t>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>finition des controllers utilisateur et commencer les controller de services</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>finition controller de services et commencer controller planning et promotion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>terminer les controller promotion et service et commencer le controller de contart et tout ce qui va avec</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1500,7 +1529,9 @@
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="16">
+        <v>44055.0</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="4" t="s">
         <v>1</v>
@@ -1514,8 +1545,8 @@
       <c r="J133" s="5"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="6" t="s">
-        <v>3</v>
+      <c r="B134" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="J134" s="8"/>
     </row>
@@ -1568,7 +1599,9 @@
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="16">
+        <v>44057.0</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="4" t="s">
         <v>1</v>
@@ -1582,8 +1615,8 @@
       <c r="J143" s="5"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="6" t="s">
-        <v>3</v>
+      <c r="B144" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="J144" s="8"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -284,7 +284,7 @@
     </r>
     <r>
       <rPr/>
-      <t>terminer tout les fonctionnalite et commencer le char</t>
+      <t>travailler sur tout les fonctionnalite utilisateur et recherche</t>
     </r>
   </si>
   <si>
@@ -293,8 +293,11 @@
     </r>
     <r>
       <rPr/>
-      <t>terminer les controller promotion et service et commencer le controller de contart et tout ce qui va avec</t>
-    </r>
+      <t>travailler sur tout ce qui est utilisateur et recherche</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFICULTE: </t>
   </si>
   <si>
     <r>
@@ -302,7 +305,7 @@
     </r>
     <r>
       <rPr/>
-      <t>terminer les controller promotion et service et commencer le controller de contart et tout ce qui va avec</t>
+      <t>ajouter quelques fonctionnalite pour controller utilisateur et coder les routes pour les photos</t>
     </r>
   </si>
 </sst>
@@ -410,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -443,6 +446,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="16">
-        <v>44057.0</v>
+        <v>44063.0</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="4" t="s">
@@ -1968,8 +1974,8 @@
       <c r="J186" s="8"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="10" t="s">
-        <v>5</v>
+      <c r="B187" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -2009,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="16">
-        <v>44057.0</v>
+        <v>44064.0</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="4" t="s">
@@ -2025,7 +2031,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J194" s="8"/>
     </row>

--- a/rapport journalier/Rapport_journalier_Nassim.xlsx
+++ b/rapport journalier/Rapport_journalier_Nassim.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="35">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -306,6 +306,24 @@
     <r>
       <rPr/>
       <t>ajouter quelques fonctionnalite pour controller utilisateur et coder les routes pour les photos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t>coder le chat cote serveur et regler les conflits dans les controllers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FUNTIONALITE : </t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">terminer le chat entre serveur et mobile </t>
     </r>
   </si>
 </sst>
@@ -316,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -340,6 +358,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -355,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -408,12 +433,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -450,6 +486,54 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2079,32 +2163,374 @@
       <c r="I201" s="14"/>
       <c r="J201" s="15"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="23"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="25"/>
+      <c r="B203" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="27">
+        <v>44067.0</v>
+      </c>
+      <c r="D203" s="28"/>
+      <c r="E203" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203" s="28"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I203" s="28"/>
+      <c r="J203" s="29"/>
+      <c r="K203" s="30"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="25"/>
+      <c r="B204" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="30"/>
+      <c r="I204" s="30"/>
+      <c r="J204" s="33"/>
+      <c r="K204" s="30"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="25"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="33"/>
+      <c r="K205" s="30"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="25"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="35"/>
+      <c r="K206" s="30"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="25"/>
+      <c r="B207" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="33"/>
+      <c r="K207" s="30"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="25"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="33"/>
+      <c r="K208" s="30"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="25"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="33"/>
+      <c r="K209" s="30"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="25"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="33"/>
+      <c r="K210" s="30"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="25"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="35"/>
+      <c r="K211" s="30"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="23"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="24"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="24"/>
+      <c r="I212" s="24"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="23"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="25"/>
+      <c r="B213" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="27">
+        <v>44068.0</v>
+      </c>
+      <c r="D213" s="28"/>
+      <c r="E213" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I213" s="28"/>
+      <c r="J213" s="29"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="23"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="25"/>
+      <c r="B214" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="33"/>
+      <c r="K214" s="30"/>
+      <c r="L214" s="23"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="25"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="30"/>
+      <c r="L215" s="23"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="25"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="35"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="23"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="25"/>
+      <c r="B217" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="30"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="33"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="23"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="25"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="23"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="25"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="25"/>
+      <c r="K219" s="23"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="25"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="25"/>
+      <c r="K220" s="23"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="25"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="37"/>
+      <c r="F221" s="37"/>
+      <c r="G221" s="37"/>
+      <c r="H221" s="37"/>
+      <c r="I221" s="37"/>
+      <c r="J221" s="38"/>
+      <c r="K221" s="23"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="23"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="23"/>
+      <c r="D222" s="23"/>
+      <c r="E222" s="23"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="23"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="23"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="23"/>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="23"/>
+      <c r="I223" s="23"/>
+      <c r="J223" s="23"/>
+      <c r="K223" s="23"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="23"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="23"/>
+      <c r="D224" s="23"/>
+      <c r="E224" s="23"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="23"/>
+      <c r="H224" s="23"/>
+      <c r="I224" s="23"/>
+      <c r="J224" s="23"/>
+      <c r="K224" s="23"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="23"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="23"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="23"/>
+      <c r="H225" s="23"/>
+      <c r="I225" s="23"/>
+      <c r="J225" s="23"/>
+      <c r="K225" s="23"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="23"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="23"/>
+      <c r="D226" s="23"/>
+      <c r="E226" s="23"/>
+      <c r="F226" s="23"/>
+      <c r="G226" s="23"/>
+      <c r="H226" s="23"/>
+      <c r="I226" s="23"/>
+      <c r="J226" s="23"/>
+      <c r="K226" s="23"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="23"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="23"/>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23"/>
+      <c r="H227" s="23"/>
+      <c r="I227" s="23"/>
+      <c r="J227" s="23"/>
+      <c r="K227" s="23"/>
+    </row>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
